--- a/src/main/webapp/template/물품관리양식.xlsx
+++ b/src/main/webapp/template/물품관리양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC23E4C-7F53-4DDF-B846-B8AE9C9EFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE53D9D-5F69-413F-9B85-0561E9E40C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -46,23 +46,23 @@
     <t>카테고리</t>
   </si>
   <si>
-    <t>0100001</t>
+    <t>0010001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0100002</t>
+    <t>0010002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0100003</t>
+    <t>0010003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0100004</t>
+    <t>0010004</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0200006</t>
+    <t>0020006</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
